--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gith\JobWorkbookAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D27384-755A-4862-82E1-3E9E558FE885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12789019-C5D0-4202-845F-F91C6F48DF37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="4" r:id="rId1"/>
@@ -93,12 +93,6 @@
     <t>enter other cost</t>
   </si>
   <si>
-    <t>ORDER DATE</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER</t>
-  </si>
-  <si>
     <t>CLIENT NAME</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>WORK ORDER COMPILED BY</t>
   </si>
   <si>
-    <t>WORK ORDER</t>
-  </si>
-  <si>
     <t>ITEM RECD.</t>
   </si>
   <si>
@@ -160,6 +151,15 @@
   </si>
   <si>
     <t>Geeta Market, Geeta Mandir Road</t>
+  </si>
+  <si>
+    <t>JOB NUMBER</t>
+  </si>
+  <si>
+    <t>JOB ORDER</t>
+  </si>
+  <si>
+    <t>JOB DATE</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -831,6 +831,18 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -840,10 +852,31 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -853,27 +886,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -882,23 +894,14 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -937,23 +940,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>16758</xdr:rowOff>
+      <xdr:colOff>26869</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96109C75-D15B-4456-8CEB-E13BB53C1E36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29816D8C-8389-4FCF-96F6-22AFA4833D7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -969,8 +972,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5591175" y="19050"/>
-          <a:ext cx="1076325" cy="959733"/>
+          <a:off x="5219701" y="0"/>
+          <a:ext cx="1455618" cy="1297940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1252,7 +1255,7 @@
   <dimension ref="B1:F43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,47 +1268,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" s="12" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="2:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="11"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="2:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="2:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="2:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24"/>
-      <c r="C5" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="62"/>
+      <c r="C5" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="43"/>
       <c r="E5" s="26"/>
       <c r="F5" s="25"/>
     </row>
@@ -1318,52 +1321,52 @@
     </row>
     <row r="7" spans="2:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
+        <v>16</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="27" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
+        <v>17</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="28"/>
       <c r="F8" s="31"/>
     </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
+        <v>18</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
     </row>
     <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
+        <v>23</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
     </row>
     <row r="11" spans="2:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
+        <v>24</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="2:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
@@ -1374,45 +1377,45 @@
     </row>
     <row r="13" spans="2:6" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
+        <v>25</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="2:6" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
+        <v>26</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55"/>
     </row>
     <row r="15" spans="2:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-    </row>
-    <row r="16" spans="2:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
+    </row>
+    <row r="16" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
     </row>
     <row r="17" spans="2:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>2</v>
@@ -1422,51 +1425,51 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
       <c r="F18" s="23"/>
     </row>
     <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
       <c r="F19" s="23"/>
     </row>
     <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
       <c r="F20" s="23"/>
     </row>
     <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
       <c r="F21" s="23"/>
     </row>
     <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
       <c r="F22" s="23"/>
     </row>
     <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
       <c r="F23" s="23"/>
     </row>
     <row r="24" spans="2:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="18" t="s">
         <v>4</v>
       </c>
@@ -1480,10 +1483,10 @@
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="2:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="56"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="18" t="s">
         <v>5</v>
       </c>
@@ -1495,51 +1498,51 @@
       </c>
     </row>
     <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
       <c r="F27" s="23"/>
     </row>
     <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
       <c r="F28" s="23"/>
     </row>
     <row r="29" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
       <c r="F29" s="23"/>
     </row>
     <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
       <c r="F30" s="23"/>
     </row>
     <row r="31" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
       <c r="F31" s="23"/>
     </row>
     <row r="32" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
       <c r="F32" s="23"/>
     </row>
     <row r="33" spans="2:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="18" t="s">
         <v>8</v>
       </c>
@@ -1554,7 +1557,7 @@
     </row>
     <row r="35" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C35" s="32"/>
       <c r="E35" s="33" t="s">
@@ -1575,7 +1578,7 @@
     </row>
     <row r="37" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="32"/>
       <c r="D37" s="8"/>
@@ -1586,7 +1589,7 @@
     </row>
     <row r="38" spans="2:6" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C38" s="32"/>
       <c r="D38" s="7" t="s">
@@ -1599,7 +1602,7 @@
     </row>
     <row r="39" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C39" s="38"/>
       <c r="E39" s="37" t="s">
@@ -1608,27 +1611,27 @@
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="2:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
+      <c r="B40" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:D33"/>
@@ -1650,6 +1653,7 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B16:F16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:F4"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -5,18 +5,18 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gith\JobWorkbookAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gith\JobWorkbookAutomation-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12789019-C5D0-4202-845F-F91C6F48DF37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3851F90-56AE-4C0D-984A-5190DC3CF9BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">sheet1!$B$1:$F$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">sheet1!$B$1:$F$34</definedName>
     <definedName name="Type" localSheetId="0">sheet1!#REF!</definedName>
     <definedName name="Type">#REF!</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>ADDITIONAL COMMENTS</t>
   </si>
@@ -75,9 +75,6 @@
     <t>SUBTOTAL</t>
   </si>
   <si>
-    <t>TAX RATE %</t>
-  </si>
-  <si>
     <t>TOTAL TAX</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>OTHER</t>
   </si>
   <si>
-    <t>enter tax rate</t>
-  </si>
-  <si>
     <t>enter other cost</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>ITEM</t>
   </si>
   <si>
-    <t>Customer Remarks :- I have checked the system/Item and found the system/Item in good and working condition at the time of Delivery.</t>
-  </si>
-  <si>
     <t>Signature of Customer</t>
   </si>
   <si>
@@ -147,28 +138,39 @@
     <t>Panipat-132103</t>
   </si>
   <si>
-    <t>Haryana</t>
-  </si>
-  <si>
     <t>Geeta Market, Geeta Mandir Road</t>
   </si>
   <si>
     <t>JOB NUMBER</t>
   </si>
   <si>
-    <t>JOB ORDER</t>
-  </si>
-  <si>
     <t>JOB DATE</t>
+  </si>
+  <si>
+    <t>Haryana-Ph. 9813336161, 01804077183</t>
+  </si>
+  <si>
+    <t>info@computercityindia.com</t>
+  </si>
+  <si>
+    <t>Minimum Charges</t>
+  </si>
+  <si>
+    <t>Advance Recd.</t>
+  </si>
+  <si>
+    <t>Customer Remarks :- I have checked the system/Item and found the system/Item in good and working condition at the time of Delivery. I am ready to pay the Minimum Charges.</t>
+  </si>
+  <si>
+    <t>JOB SHEET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -196,12 +198,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -290,20 +286,28 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="8"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Century Gothic"/>
-      <family val="1"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="22"/>
       <color theme="6" tint="-0.499984740745262"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,8 +362,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -494,7 +510,7 @@
       <top style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </top>
-      <bottom style="dotted">
+      <bottom style="medium">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
@@ -503,13 +519,11 @@
       <left style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
@@ -522,7 +536,20 @@
       <top style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </top>
-      <bottom style="dotted">
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
@@ -532,7 +559,7 @@
         <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right/>
-      <top style="dotted">
+      <top style="medium">
         <color theme="0" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
@@ -542,64 +569,25 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="double">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="double">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="double">
@@ -708,212 +696,205 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Percent" xfId="4" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -941,7 +922,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>685801</xdr:colOff>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -949,7 +930,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>26869</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>107315</xdr:rowOff>
+      <xdr:rowOff>47863</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -972,8 +953,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5219701" y="0"/>
-          <a:ext cx="1455618" cy="1297940"/>
+          <a:off x="5524500" y="0"/>
+          <a:ext cx="1388944" cy="1238488"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1252,10 +1233,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F43"/>
+  <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,385 +1244,351 @@
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="6" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="12" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="2:6" s="10" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+    </row>
+    <row r="2" spans="2:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+    </row>
+    <row r="3" spans="2:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+    </row>
+    <row r="4" spans="2:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+    </row>
+    <row r="5" spans="2:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="2:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-    </row>
-    <row r="2" spans="2:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-    </row>
-    <row r="3" spans="2:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-    </row>
-    <row r="4" spans="2:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-    </row>
-    <row r="5" spans="2:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
-      <c r="C5" s="43" t="s">
+    </row>
+    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="2:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="27" t="s">
+    </row>
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="2:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+    </row>
+    <row r="12" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+    </row>
+    <row r="14" spans="2:6" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
+    </row>
+    <row r="16" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+    </row>
+    <row r="17" spans="2:6" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="2:6" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:6" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="38"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="2:6" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="E31" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="2:6" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="35"/>
+      <c r="E34" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="2:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="31"/>
-    </row>
-    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-    </row>
-    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-    </row>
-    <row r="11" spans="2:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-    </row>
-    <row r="12" spans="2:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-    </row>
-    <row r="14" spans="2:6" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55"/>
-    </row>
-    <row r="15" spans="2:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
-    </row>
-    <row r="16" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-    </row>
-    <row r="17" spans="2:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="18" t="s">
+      <c r="C38" s="63"/>
+      <c r="D38" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="23"/>
-    </row>
-    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="23"/>
-    </row>
-    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="23"/>
-    </row>
-    <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="61"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="61"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="23"/>
-    </row>
-    <row r="24" spans="2:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="23"/>
-    </row>
-    <row r="25" spans="2:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="61"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="23"/>
-    </row>
-    <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="23"/>
-    </row>
-    <row r="29" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="23"/>
-    </row>
-    <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="61"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="23"/>
-    </row>
-    <row r="31" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="61"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="23"/>
-    </row>
-    <row r="32" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="61"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="23"/>
-    </row>
-    <row r="33" spans="2:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="23"/>
-    </row>
-    <row r="34" spans="2:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="E35" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="2:6" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="38"/>
-      <c r="E39" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="22"/>
-    </row>
-    <row r="40" spans="2:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="64" t="s">
+      <c r="E38" s="63"/>
+      <c r="F38" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" t="s">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B24:D24"/>
+  <mergeCells count="24">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
@@ -1650,17 +1597,15 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:F4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup scale="99" orientation="portrait" r:id="rId1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,56 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gith\JobWorkbookAutomation-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gith\JobWorkbookAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3851F90-56AE-4C0D-984A-5190DC3CF9BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634F469C-CFA6-453D-A653-12A827A850DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">sheet1!$B$1:$F$34</definedName>
     <definedName name="Type" localSheetId="0">sheet1!#REF!</definedName>
     <definedName name="Type">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr autoRecover="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+  <si>
+    <t>Computer City India</t>
+  </si>
+  <si>
+    <t>Geeta Market, Geeta Mandir Road</t>
+  </si>
+  <si>
+    <t>Panipat-132103</t>
+  </si>
+  <si>
+    <t>Haryana-Ph. 9813336161, 01804077183</t>
+  </si>
+  <si>
+    <t>info@computercityindia.com</t>
+  </si>
+  <si>
+    <t>JOB SHEET</t>
+  </si>
+  <si>
+    <t>CLIENT NAME</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>JOB DATE</t>
+  </si>
+  <si>
+    <t>JOB NUMBER</t>
+  </si>
+  <si>
+    <t>CLIENT PHONE</t>
+  </si>
+  <si>
+    <t>18/03/1999</t>
+  </si>
+  <si>
+    <t>AKS-0</t>
+  </si>
+  <si>
+    <t>CLIENT EMAIL</t>
+  </si>
+  <si>
+    <t>Minimum Charges</t>
+  </si>
+  <si>
+    <t>Advance Recd.</t>
+  </si>
+  <si>
+    <t>ITEM RECD.</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>MODEL NO</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>PROBLEM REPORTED</t>
+  </si>
+  <si>
+    <t>No Problem</t>
+  </si>
+  <si>
+    <t>PROBLEM DIAGNOSED</t>
+  </si>
   <si>
     <t>ADDITIONAL COMMENTS</t>
   </si>
   <si>
+    <t>Minimum charges for the repair are: 200</t>
+  </si>
+  <si>
     <t>LABOR DESCRIPTION</t>
   </si>
   <si>
+    <t>ITEM</t>
+  </si>
+  <si>
     <t>RATE</t>
   </si>
   <si>
@@ -60,67 +117,46 @@
     <t>LABOR TOTAL</t>
   </si>
   <si>
+    <t>MATERIAL DESCRIPTION</t>
+  </si>
+  <si>
     <t>QUANTITY</t>
   </si>
   <si>
     <t>PRICE PER UNIT</t>
   </si>
   <si>
-    <t>MATERIAL DESCRIPTION</t>
-  </si>
-  <si>
     <t>MATERIAL TOTAL</t>
   </si>
   <si>
+    <t>WORK ORDER COMPILED BY</t>
+  </si>
+  <si>
     <t>SUBTOTAL</t>
   </si>
   <si>
+    <t>APPROVING PARTY NAME AND TITLE</t>
+  </si>
+  <si>
     <t>TOTAL TAX</t>
   </si>
   <si>
+    <t>APPROVING PARTY SIGNATURE</t>
+  </si>
+  <si>
+    <t>enter other cost</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>DATE OF APPROVAL</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>OTHER</t>
-  </si>
-  <si>
-    <t>enter other cost</t>
-  </si>
-  <si>
-    <t>CLIENT NAME</t>
-  </si>
-  <si>
-    <t>CLIENT PHONE</t>
-  </si>
-  <si>
-    <t>CLIENT EMAIL</t>
-  </si>
-  <si>
-    <t>APPROVING PARTY NAME AND TITLE</t>
-  </si>
-  <si>
-    <t>APPROVING PARTY SIGNATURE</t>
-  </si>
-  <si>
-    <t>DATE OF APPROVAL</t>
-  </si>
-  <si>
-    <t>WORK ORDER COMPILED BY</t>
-  </si>
-  <si>
-    <t>ITEM RECD.</t>
-  </si>
-  <si>
-    <t>MODEL NO</t>
-  </si>
-  <si>
-    <t>PROBLEM REPORTED</t>
-  </si>
-  <si>
-    <t>PROBLEM DIAGNOSED</t>
-  </si>
-  <si>
-    <t>ITEM</t>
+    <t>Customer Remarks :- I have checked the system/Item and found the system/Item in good and working condition at the time of Delivery. I am ready to pay the Minimum Charges.</t>
   </si>
   <si>
     <t>Signature of Customer</t>
@@ -132,37 +168,10 @@
     <t>Cordinator</t>
   </si>
   <si>
-    <t>Computer City India</t>
-  </si>
-  <si>
-    <t>Panipat-132103</t>
-  </si>
-  <si>
-    <t>Geeta Market, Geeta Mandir Road</t>
-  </si>
-  <si>
-    <t>JOB NUMBER</t>
-  </si>
-  <si>
-    <t>JOB DATE</t>
-  </si>
-  <si>
-    <t>Haryana-Ph. 9813336161, 01804077183</t>
-  </si>
-  <si>
-    <t>info@computercityindia.com</t>
-  </si>
-  <si>
-    <t>Minimum Charges</t>
-  </si>
-  <si>
-    <t>Advance Recd.</t>
-  </si>
-  <si>
-    <t>Customer Remarks :- I have checked the system/Item and found the system/Item in good and working condition at the time of Delivery. I am ready to pay the Minimum Charges.</t>
-  </si>
-  <si>
-    <t>JOB SHEET</t>
+    <t>Work Detail</t>
+  </si>
+  <si>
+    <t>hrttdfvre</t>
   </si>
 </sst>
 </file>
@@ -171,10 +180,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +314,29 @@
       <color theme="6" tint="-0.499984740745262"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -375,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -399,11 +431,63 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right/>
       <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="thin">
@@ -414,13 +498,52 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,6 +555,32 @@
       <top style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
@@ -439,28 +588,15 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="double">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
@@ -471,17 +607,56 @@
       <top style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+      <bottom style="double">
+        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="double">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="double">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="double">
         <color theme="0" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
@@ -495,7 +670,7 @@
       <top style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
@@ -510,402 +685,200 @@
       <top style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="double">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="double">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="double">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="double">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="double">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="double">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF00BD32"/>
-      <color rgb="FFEAEEF3"/>
-      <color rgb="FF03C25B"/>
-      <color rgb="FFDAF0F3"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -937,7 +910,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29816D8C-8389-4FCF-96F6-22AFA4833D7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,6 +932,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1228,15 +1204,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6459C868-3CC9-1D46-B9D1-D27C6ECB6BE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:F14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,51 +1225,51 @@
     <col min="7" max="7" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="10" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+    <row r="1" spans="2:6" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="2:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="2:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="2:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="2:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="2:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
@@ -1302,58 +1278,72 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="F9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="29"/>
-    </row>
-    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+    </row>
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="C10" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="2:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
+      <c r="B11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
@@ -1362,84 +1352,88 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="2:6" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="2:6" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-    </row>
-    <row r="14" spans="2:6" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="62"/>
+    </row>
+    <row r="16" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
-    </row>
-    <row r="15" spans="2:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
-    </row>
-    <row r="16" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-    </row>
-    <row r="17" spans="2:6" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="16" t="s">
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+    </row>
+    <row r="17" spans="2:6" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>3</v>
+      <c r="C17" s="53"/>
+      <c r="D17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="21"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="21"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="21"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="2:6" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
@@ -1448,64 +1442,64 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>3</v>
+    <row r="23" spans="2:6" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="53"/>
+      <c r="D23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="21"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="21"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="53"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="21"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="21"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="21"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+    </row>
+    <row r="29" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="2:6" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
@@ -1515,81 +1509,82 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="E31" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="18"/>
+      <c r="B31" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="E31" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="36"/>
     </row>
     <row r="32" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="19"/>
+      <c r="B32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="37"/>
     </row>
     <row r="33" spans="2:6" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="8"/>
+      <c r="B33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="38"/>
     </row>
     <row r="34" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="35"/>
-      <c r="E34" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="20"/>
+      <c r="B34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="E34" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="39"/>
     </row>
     <row r="35" spans="2:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
+      <c r="B35" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="62" t="s">
-        <v>28</v>
+      <c r="B38" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="33"/>
+      <c r="F38" s="32" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:F4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C15:F15"/>
@@ -1598,14 +1593,13 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup scale="99" orientation="portrait" r:id="rId1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gith\JobWorkbookAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634F469C-CFA6-453D-A653-12A827A850DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453DD107-F404-49C8-B489-DF6CD102B50B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>ADDITIONAL COMMENTS</t>
   </si>
   <si>
-    <t>Minimum charges for the repair are: 200</t>
-  </si>
-  <si>
     <t>LABOR DESCRIPTION</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>hrttdfvre</t>
+  </si>
+  <si>
+    <t>We are not Responsible for any data losses. Minimum diagnostic charges are: 200</t>
   </si>
 </sst>
 </file>
@@ -325,18 +325,18 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -813,38 +813,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -860,17 +843,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -1212,7 +1212,7 @@
   <dimension ref="B1:F38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B16" sqref="B16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,40 +1226,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="2:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="2:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="2:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
     </row>
     <row r="5" spans="2:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
@@ -1282,10 +1282,10 @@
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="45"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="19" t="s">
         <v>8</v>
       </c>
@@ -1297,8 +1297,8 @@
       <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="20" t="s">
         <v>11</v>
       </c>
@@ -1310,8 +1310,8 @@
       <c r="B9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="30" t="s">
         <v>14</v>
       </c>
@@ -1323,10 +1323,10 @@
       <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
     </row>
@@ -1334,15 +1334,15 @@
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="41" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1356,82 +1356,82 @@
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
     </row>
     <row r="14" spans="2:6" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
     </row>
     <row r="15" spans="2:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="62"/>
-    </row>
-    <row r="16" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="64" t="s">
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
+    </row>
+    <row r="16" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+    </row>
+    <row r="17" spans="2:6" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-    </row>
-    <row r="17" spans="2:6" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="63" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="14" t="s">
+      <c r="E17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="F17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
-      <c r="C18" s="53"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="4"/>
       <c r="E18" s="34"/>
       <c r="F18" s="35"/>
     </row>
     <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
-      <c r="C19" s="53"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="4"/>
       <c r="E19" s="34"/>
       <c r="F19" s="35"/>
     </row>
     <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
-      <c r="C20" s="53"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="4"/>
       <c r="E20" s="34"/>
       <c r="F20" s="35"/>
     </row>
     <row r="21" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="45"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="35"/>
     </row>
@@ -1443,61 +1443,61 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="14" t="s">
+      <c r="E23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="F23" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="4"/>
       <c r="E24" s="34"/>
       <c r="F24" s="35"/>
     </row>
     <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
-      <c r="C25" s="53"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="4"/>
       <c r="E25" s="34"/>
       <c r="F25" s="35"/>
     </row>
     <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
-      <c r="C26" s="53"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="4"/>
       <c r="E26" s="34"/>
       <c r="F26" s="35"/>
     </row>
     <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="50"/>
-      <c r="C27" s="53"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="4"/>
       <c r="E27" s="34"/>
       <c r="F27" s="35"/>
     </row>
     <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="50"/>
-      <c r="C28" s="53"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="4"/>
       <c r="E28" s="34"/>
       <c r="F28" s="35"/>
     </row>
     <row r="29" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="45"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" s="35"/>
     </row>
@@ -1510,80 +1510,79 @@
     </row>
     <row r="31" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="29"/>
       <c r="E31" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" s="36"/>
     </row>
     <row r="32" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="6"/>
       <c r="E32" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" s="37"/>
     </row>
     <row r="33" spans="2:6" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="26" t="s">
         <v>39</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>40</v>
       </c>
       <c r="F33" s="38"/>
     </row>
     <row r="34" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="28"/>
       <c r="E34" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="39"/>
+    </row>
+    <row r="35" spans="2:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="39"/>
-    </row>
-    <row r="35" spans="2:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38" s="33"/>
       <c r="F38" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
@@ -1593,13 +1592,14 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B16:F16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:F4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup scale="99" orientation="portrait" r:id="rId1"/>
